--- a/Code/Results/Cases/Case_9_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.238141812801871</v>
+        <v>3.00223316984966</v>
       </c>
       <c r="C2">
-        <v>0.9322368942563628</v>
+        <v>1.026680345982356</v>
       </c>
       <c r="D2">
-        <v>0.01667642255845792</v>
+        <v>0.01915483058318834</v>
       </c>
       <c r="E2">
-        <v>1.372514073849274</v>
+        <v>1.366053049648826</v>
       </c>
       <c r="F2">
-        <v>1.17707398117507</v>
+        <v>1.045099013385808</v>
       </c>
       <c r="G2">
-        <v>1.147874294770105</v>
+        <v>0.9734935285192847</v>
       </c>
       <c r="H2">
-        <v>0.01323943178257869</v>
+        <v>0.012511695003321</v>
       </c>
       <c r="I2">
-        <v>0.007629395306958831</v>
+        <v>0.006796446401485134</v>
       </c>
       <c r="J2">
-        <v>0.6769797712460957</v>
+        <v>0.6542791861204478</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2292692467555995</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.119074350098952</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6306156568423162</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6454248020321316</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.813159568386141</v>
+        <v>2.619831549211483</v>
       </c>
       <c r="C3">
-        <v>0.8143741027402314</v>
+        <v>0.8910137726080336</v>
       </c>
       <c r="D3">
-        <v>0.01633018267384934</v>
+        <v>0.01816542601315696</v>
       </c>
       <c r="E3">
-        <v>1.192317634128372</v>
+        <v>1.188255234678635</v>
       </c>
       <c r="F3">
-        <v>1.053464509705179</v>
+        <v>0.943090778975133</v>
       </c>
       <c r="G3">
-        <v>1.02307838951242</v>
+        <v>0.8733250201092915</v>
       </c>
       <c r="H3">
-        <v>0.009237478028078311</v>
+        <v>0.008823051226726525</v>
       </c>
       <c r="I3">
-        <v>0.004709163814061057</v>
+        <v>0.004435631491178871</v>
       </c>
       <c r="J3">
-        <v>0.6226549473164198</v>
+        <v>0.6090018177023921</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2286730773723598</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1036312404740194</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6603564969843667</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.667621933018232</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.552048815826765</v>
+        <v>2.384136019665789</v>
       </c>
       <c r="C4">
-        <v>0.7425968246316756</v>
+        <v>0.8084780812758936</v>
       </c>
       <c r="D4">
-        <v>0.01609925493095155</v>
+        <v>0.01754891288658733</v>
       </c>
       <c r="E4">
-        <v>1.082269058628157</v>
+        <v>1.079541330363114</v>
       </c>
       <c r="F4">
-        <v>0.9784473478558198</v>
+        <v>0.880930791475123</v>
       </c>
       <c r="G4">
-        <v>0.9472421573960617</v>
+        <v>0.8123978446592588</v>
       </c>
       <c r="H4">
-        <v>0.007073880687229694</v>
+        <v>0.00681671482921975</v>
       </c>
       <c r="I4">
-        <v>0.003271927041259115</v>
+        <v>0.003251235907574923</v>
       </c>
       <c r="J4">
-        <v>0.5897692496501747</v>
+        <v>0.5811898468327996</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2281356351445041</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09492178655586869</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.679188279078474</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.6819283391214057</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.443607080732363</v>
+        <v>2.286042261923171</v>
       </c>
       <c r="C5">
-        <v>0.7143199301006291</v>
+        <v>0.775871349132558</v>
       </c>
       <c r="D5">
-        <v>0.01601149855783568</v>
+        <v>0.01731482969886677</v>
       </c>
       <c r="E5">
-        <v>1.03751387959116</v>
+        <v>1.035303143465768</v>
       </c>
       <c r="F5">
-        <v>0.9469240051952426</v>
+        <v>0.8546681437972978</v>
       </c>
       <c r="G5">
-        <v>0.9151826074167531</v>
+        <v>0.7865181692193204</v>
       </c>
       <c r="H5">
-        <v>0.006257222651614769</v>
+        <v>0.006056509665884335</v>
       </c>
       <c r="I5">
-        <v>0.002822110312927784</v>
+        <v>0.0028971851006796</v>
       </c>
       <c r="J5">
-        <v>0.575803073842593</v>
+        <v>0.5692346496592364</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2275477929808041</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09134143883753509</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6870141546840909</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.6880681448946859</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.423197890018685</v>
+        <v>2.267537629191679</v>
       </c>
       <c r="C6">
-        <v>0.7106671551715067</v>
+        <v>0.7715153411940889</v>
       </c>
       <c r="D6">
-        <v>0.01601014862887062</v>
+        <v>0.01729977431969942</v>
       </c>
       <c r="E6">
-        <v>1.030054695331074</v>
+        <v>1.027932152307883</v>
       </c>
       <c r="F6">
-        <v>0.9403005645971376</v>
+        <v>0.8490542203820297</v>
       </c>
       <c r="G6">
-        <v>0.9082503142430767</v>
+        <v>0.7807973893444426</v>
       </c>
       <c r="H6">
-        <v>0.00612247152656209</v>
+        <v>0.005931059963947161</v>
       </c>
       <c r="I6">
-        <v>0.002825351753801719</v>
+        <v>0.002933065699420645</v>
       </c>
       <c r="J6">
-        <v>0.5726719523737387</v>
+        <v>0.5665000704093899</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2270511930232146</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09048890149998456</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6883427866685263</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.6892789656273592</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.54401154421555</v>
+        <v>2.374161847594735</v>
       </c>
       <c r="C7">
-        <v>0.7450509445816351</v>
+        <v>0.809522276308968</v>
       </c>
       <c r="D7">
-        <v>0.01613507990065877</v>
+        <v>0.01765793935978976</v>
       </c>
       <c r="E7">
-        <v>1.081570586744022</v>
+        <v>1.078798126851794</v>
       </c>
       <c r="F7">
-        <v>0.974188762112945</v>
+        <v>0.8748991428802242</v>
       </c>
       <c r="G7">
-        <v>0.9423775370437966</v>
+        <v>0.8123128728334876</v>
       </c>
       <c r="H7">
-        <v>0.00705366522606321</v>
+        <v>0.00679250307609347</v>
       </c>
       <c r="I7">
-        <v>0.003448497191129718</v>
+        <v>0.003468914674204626</v>
       </c>
       <c r="J7">
-        <v>0.5873422124932262</v>
+        <v>0.5705984884024815</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2266095831081429</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09379461084516905</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6793657958607682</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.6827776047830376</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.082797936042368</v>
+        <v>2.853695311571016</v>
       </c>
       <c r="C8">
-        <v>0.895254123856688</v>
+        <v>0.9788980586125149</v>
       </c>
       <c r="D8">
-        <v>0.01661127416444863</v>
+        <v>0.01906893757046824</v>
       </c>
       <c r="E8">
-        <v>1.310106232283374</v>
+        <v>1.30430313266983</v>
       </c>
       <c r="F8">
-        <v>1.129141046930656</v>
+        <v>0.9977995359485163</v>
       </c>
       <c r="G8">
-        <v>1.098749015378743</v>
+        <v>0.9476304216467923</v>
       </c>
       <c r="H8">
-        <v>0.01178003723890009</v>
+        <v>0.01114650984745588</v>
       </c>
       <c r="I8">
-        <v>0.006749754750718928</v>
+        <v>0.006159519096399002</v>
       </c>
       <c r="J8">
-        <v>0.6551631965085392</v>
+        <v>0.6082588103571993</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2263678155988558</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1113482806869079</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6409180470588893</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.6546966865088635</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.151782214297555</v>
+        <v>3.808436420351939</v>
       </c>
       <c r="C9">
-        <v>1.190347359673183</v>
+        <v>1.317899579981372</v>
       </c>
       <c r="D9">
-        <v>0.01732617896117183</v>
+        <v>0.02146622973874202</v>
       </c>
       <c r="E9">
-        <v>1.764646615329411</v>
+        <v>1.751775835755566</v>
       </c>
       <c r="F9">
-        <v>1.448374368790681</v>
+        <v>1.257908542514826</v>
       </c>
       <c r="G9">
-        <v>1.421180880010866</v>
+        <v>1.210686402127806</v>
       </c>
       <c r="H9">
-        <v>0.02370099487535038</v>
+        <v>0.0220313776341603</v>
       </c>
       <c r="I9">
-        <v>0.01615334638489863</v>
+        <v>0.01348319609343562</v>
       </c>
       <c r="J9">
-        <v>0.7966253156406538</v>
+        <v>0.7159428102239644</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2279738693426481</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1548207755314266</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5700852560060916</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6032343333590937</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.908032041442311</v>
+        <v>4.465328217646402</v>
       </c>
       <c r="C10">
-        <v>1.402697066044254</v>
+        <v>1.552518780252512</v>
       </c>
       <c r="D10">
-        <v>0.01811043771257737</v>
+        <v>0.02409351154943806</v>
       </c>
       <c r="E10">
-        <v>2.000497885726617</v>
+        <v>1.981520037634013</v>
       </c>
       <c r="F10">
-        <v>1.665578977820175</v>
+        <v>1.4197219701732</v>
       </c>
       <c r="G10">
-        <v>1.636484061598225</v>
+        <v>1.410819970106644</v>
       </c>
       <c r="H10">
-        <v>0.03358639178488776</v>
+        <v>0.03090334405456696</v>
       </c>
       <c r="I10">
-        <v>0.02528375526431947</v>
+        <v>0.02044216010046362</v>
       </c>
       <c r="J10">
-        <v>0.8902653926416235</v>
+        <v>0.7364964891316959</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2229381196619897</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1848646652161108</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5234316678911028</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5758155582627964</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.991138821837296</v>
+        <v>4.521391088166638</v>
       </c>
       <c r="C11">
-        <v>1.411319642457102</v>
+        <v>1.537617267925782</v>
       </c>
       <c r="D11">
-        <v>0.02255891061880533</v>
+        <v>0.03209837274072669</v>
       </c>
       <c r="E11">
-        <v>1.304567064491451</v>
+        <v>1.287580491544844</v>
       </c>
       <c r="F11">
-        <v>1.565248297402377</v>
+        <v>1.306404030159698</v>
       </c>
       <c r="G11">
-        <v>1.504844707397041</v>
+        <v>1.350699415886055</v>
       </c>
       <c r="H11">
-        <v>0.04862183167099587</v>
+        <v>0.04591732629392453</v>
       </c>
       <c r="I11">
-        <v>0.02748486613544276</v>
+        <v>0.02216193374584918</v>
       </c>
       <c r="J11">
-        <v>0.8200049448809636</v>
+        <v>0.5856029845845967</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1921834456920912</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1653087973216856</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5279924823181013</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6123557984572159</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.911184974856837</v>
+        <v>4.448894826240121</v>
       </c>
       <c r="C12">
-        <v>1.36980528329309</v>
+        <v>1.477241151196608</v>
       </c>
       <c r="D12">
-        <v>0.02745294339042204</v>
+        <v>0.03936542376214192</v>
       </c>
       <c r="E12">
-        <v>0.8011908735955728</v>
+        <v>0.7869975050708007</v>
       </c>
       <c r="F12">
-        <v>1.443756541626357</v>
+        <v>1.193638690019085</v>
       </c>
       <c r="G12">
-        <v>1.360774525554433</v>
+        <v>1.250353331300602</v>
       </c>
       <c r="H12">
-        <v>0.0838804084927034</v>
+        <v>0.08134631380053037</v>
       </c>
       <c r="I12">
-        <v>0.0271766761567509</v>
+        <v>0.02187920809732802</v>
       </c>
       <c r="J12">
-        <v>0.7466582346026769</v>
+        <v>0.4939434521891997</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.17150394996413</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1460440815287143</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5502274529017157</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6546682756524262</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.691704414127514</v>
+        <v>4.271166138282979</v>
       </c>
       <c r="C13">
-        <v>1.292453945182785</v>
+        <v>1.386902523142965</v>
       </c>
       <c r="D13">
-        <v>0.03292957562714349</v>
+        <v>0.0458770670462485</v>
       </c>
       <c r="E13">
-        <v>0.4176323076369641</v>
+        <v>0.4066734756538253</v>
       </c>
       <c r="F13">
-        <v>1.29358435592421</v>
+        <v>1.073677081361737</v>
       </c>
       <c r="G13">
-        <v>1.192690936500071</v>
+        <v>1.099429915421695</v>
       </c>
       <c r="H13">
-        <v>0.1360231491787118</v>
+        <v>0.1338125759061342</v>
       </c>
       <c r="I13">
-        <v>0.02518245667107877</v>
+        <v>0.02041748778127062</v>
       </c>
       <c r="J13">
-        <v>0.663518842356666</v>
+        <v>0.4460397481578724</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1557061956369985</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1255218070969022</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5863201947113836</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6995977556152511</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.474686982853143</v>
+        <v>4.097850573641779</v>
       </c>
       <c r="C14">
-        <v>1.223751153965452</v>
+        <v>1.311413623001499</v>
       </c>
       <c r="D14">
-        <v>0.03717645519297719</v>
+        <v>0.05007845370955977</v>
       </c>
       <c r="E14">
-        <v>0.2223096459968303</v>
+        <v>0.2135543700694171</v>
       </c>
       <c r="F14">
-        <v>1.176141279890118</v>
+        <v>0.9856640448089991</v>
       </c>
       <c r="G14">
-        <v>1.06515945959336</v>
+        <v>0.9739705923081914</v>
       </c>
       <c r="H14">
-        <v>0.1829182370740341</v>
+        <v>0.1809779621864465</v>
       </c>
       <c r="I14">
-        <v>0.02319479671776659</v>
+        <v>0.01900897122815159</v>
       </c>
       <c r="J14">
-        <v>0.6012656044188702</v>
+        <v>0.4280377392618107</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1463584821548558</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1106176343714935</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6187595444223959</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7321109139075759</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.390145312443508</v>
+        <v>4.030607136433503</v>
       </c>
       <c r="C15">
-        <v>1.200523172903161</v>
+        <v>1.287347292217191</v>
       </c>
       <c r="D15">
-        <v>0.0382061237611353</v>
+        <v>0.05079480265035841</v>
       </c>
       <c r="E15">
-        <v>0.1835995394250531</v>
+        <v>0.1754731153664437</v>
       </c>
       <c r="F15">
-        <v>1.140056202494051</v>
+        <v>0.9606143415286112</v>
       </c>
       <c r="G15">
-        <v>1.027197006744501</v>
+        <v>0.932897860462262</v>
       </c>
       <c r="H15">
-        <v>0.1945934940689966</v>
+        <v>0.1927557539112854</v>
       </c>
       <c r="I15">
-        <v>0.02244032404391394</v>
+        <v>0.01851976882464079</v>
       </c>
       <c r="J15">
-        <v>0.5831715861962294</v>
+        <v>0.4293562166236455</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1444924180971157</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1063085101682688</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6288565901093079</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7399213739958128</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.112413106795373</v>
+        <v>3.809529870353799</v>
       </c>
       <c r="C16">
-        <v>1.129204759799052</v>
+        <v>1.221609122487507</v>
       </c>
       <c r="D16">
-        <v>0.03658675902993735</v>
+        <v>0.04674839687734789</v>
       </c>
       <c r="E16">
-        <v>0.1774374206222014</v>
+        <v>0.1706096552402414</v>
       </c>
       <c r="F16">
-        <v>1.078800217055885</v>
+        <v>0.9324942280271387</v>
       </c>
       <c r="G16">
-        <v>0.971018605413974</v>
+        <v>0.8472643917309881</v>
       </c>
       <c r="H16">
-        <v>0.1788200524640189</v>
+        <v>0.1773619239360187</v>
       </c>
       <c r="I16">
-        <v>0.01910299127903681</v>
+        <v>0.01614586119293726</v>
       </c>
       <c r="J16">
-        <v>0.5605356516220468</v>
+        <v>0.482262799013327</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1500028192123963</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1012425164790365</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6384270889391601</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7300492553989457</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.013488650970601</v>
+        <v>3.727223656575745</v>
       </c>
       <c r="C17">
-        <v>1.110672437986722</v>
+        <v>1.20902270349859</v>
       </c>
       <c r="D17">
-        <v>0.03301727151781009</v>
+        <v>0.041772211406645</v>
       </c>
       <c r="E17">
-        <v>0.2621978978782238</v>
+        <v>0.2554006980898293</v>
       </c>
       <c r="F17">
-        <v>1.093178581743928</v>
+        <v>0.9548517863303374</v>
       </c>
       <c r="G17">
-        <v>0.99423073515662</v>
+        <v>0.8511196882847543</v>
       </c>
       <c r="H17">
-        <v>0.1399115381185823</v>
+        <v>0.1385994151273735</v>
       </c>
       <c r="I17">
-        <v>0.01760408323882245</v>
+        <v>0.01506452834898919</v>
       </c>
       <c r="J17">
-        <v>0.5756459687996767</v>
+        <v>0.5269310056904288</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1592752088334493</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1045750300226302</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6285139877428421</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7080707738049625</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.062390022369868</v>
+        <v>3.766029996658744</v>
       </c>
       <c r="C18">
-        <v>1.133597584599414</v>
+        <v>1.242124822100664</v>
       </c>
       <c r="D18">
-        <v>0.02786033632265728</v>
+        <v>0.03552019402058448</v>
       </c>
       <c r="E18">
-        <v>0.4985878891411772</v>
+        <v>0.4906764559337233</v>
       </c>
       <c r="F18">
-        <v>1.178816009324549</v>
+        <v>1.031703249470979</v>
       </c>
       <c r="G18">
-        <v>1.094539153006167</v>
+        <v>0.9284623771345366</v>
       </c>
       <c r="H18">
-        <v>0.08793168549368602</v>
+        <v>0.0865893418340562</v>
       </c>
       <c r="I18">
-        <v>0.0172370490917988</v>
+        <v>0.01469800787125752</v>
       </c>
       <c r="J18">
-        <v>0.627794127058678</v>
+        <v>0.5849754313744455</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1747066409489122</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.117087063342197</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6036102930541318</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6728731763991505</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.216299471403488</v>
+        <v>3.891975571991566</v>
       </c>
       <c r="C19">
-        <v>1.195091742773798</v>
+        <v>1.318067079913419</v>
       </c>
       <c r="D19">
-        <v>0.02292906355616253</v>
+        <v>0.02956933063457967</v>
       </c>
       <c r="E19">
-        <v>0.9388653247273737</v>
+        <v>0.9286256104072521</v>
       </c>
       <c r="F19">
-        <v>1.313404034184472</v>
+        <v>1.146171959584251</v>
       </c>
       <c r="G19">
-        <v>1.248655327413303</v>
+        <v>1.054862982850509</v>
       </c>
       <c r="H19">
-        <v>0.04595713300387416</v>
+        <v>0.04440775346164116</v>
       </c>
       <c r="I19">
-        <v>0.01834897937891355</v>
+        <v>0.01558390066574233</v>
       </c>
       <c r="J19">
-        <v>0.7050362696946024</v>
+        <v>0.6538579674692784</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1936774953861224</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1358486143065143</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5762967308329792</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6357650216397133</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.686647097195419</v>
+        <v>4.28245162057766</v>
       </c>
       <c r="C20">
-        <v>1.355277568314136</v>
+        <v>1.504554661158636</v>
       </c>
       <c r="D20">
-        <v>0.01806174155251128</v>
+        <v>0.02347780398719479</v>
       </c>
       <c r="E20">
-        <v>1.933549635969669</v>
+        <v>1.91659418928883</v>
       </c>
       <c r="F20">
-        <v>1.594866578182007</v>
+        <v>1.373526208465222</v>
       </c>
       <c r="G20">
-        <v>1.564244024435339</v>
+        <v>1.329071460715056</v>
       </c>
       <c r="H20">
-        <v>0.03074152759575854</v>
+        <v>0.02839185267460742</v>
       </c>
       <c r="I20">
-        <v>0.02320371210601202</v>
+        <v>0.0192365293884702</v>
       </c>
       <c r="J20">
-        <v>0.8577945823966502</v>
+        <v>0.7537825741061965</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2228037066549362</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1751576105844208</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5363715718625102</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.5840741974687873</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.317487149651981</v>
+        <v>4.774592198883852</v>
       </c>
       <c r="C21">
-        <v>1.535138206376189</v>
+        <v>1.677027200975317</v>
       </c>
       <c r="D21">
-        <v>0.01807683295449358</v>
+        <v>0.02572600296762673</v>
       </c>
       <c r="E21">
-        <v>2.277895189988385</v>
+        <v>2.253362821933337</v>
       </c>
       <c r="F21">
-        <v>1.802190610164743</v>
+        <v>1.487972333750008</v>
       </c>
       <c r="G21">
-        <v>1.77597593840224</v>
+        <v>1.606118355250743</v>
       </c>
       <c r="H21">
-        <v>0.04053876128797551</v>
+        <v>0.03699039287192551</v>
       </c>
       <c r="I21">
-        <v>0.03152521471718828</v>
+        <v>0.02514440286072528</v>
       </c>
       <c r="J21">
-        <v>0.9525899849358552</v>
+        <v>0.6405022477576239</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2174335074525402</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1974732309970619</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.4987712743586066</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5662195042468738</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.725786181563763</v>
+        <v>5.087285874773954</v>
       </c>
       <c r="C22">
-        <v>1.644764985609811</v>
+        <v>1.778020896027556</v>
       </c>
       <c r="D22">
-        <v>0.01818715791384484</v>
+        <v>0.02753838218310634</v>
       </c>
       <c r="E22">
-        <v>2.452129242880687</v>
+        <v>2.422473602810882</v>
       </c>
       <c r="F22">
-        <v>1.933422825208865</v>
+        <v>1.554938836452123</v>
       </c>
       <c r="G22">
-        <v>1.909045349527759</v>
+        <v>1.794013902704677</v>
       </c>
       <c r="H22">
-        <v>0.04702855529447891</v>
+        <v>0.04262439771609028</v>
       </c>
       <c r="I22">
-        <v>0.03724725933255257</v>
+        <v>0.02900651598786919</v>
       </c>
       <c r="J22">
-        <v>1.012033626391116</v>
+        <v>0.561980707712479</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2130543692313793</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2115281042271846</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.4755462001892496</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5576179423923762</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.515902130636221</v>
+        <v>4.935103547550739</v>
       </c>
       <c r="C23">
-        <v>1.582627784760746</v>
+        <v>1.724420217368788</v>
       </c>
       <c r="D23">
-        <v>0.01808012867704001</v>
+        <v>0.02628265952506581</v>
       </c>
       <c r="E23">
-        <v>2.359104682550949</v>
+        <v>2.33237533659296</v>
       </c>
       <c r="F23">
-        <v>1.867835127685964</v>
+        <v>1.529119118441145</v>
       </c>
       <c r="G23">
-        <v>1.843213409153776</v>
+        <v>1.685825507421868</v>
       </c>
       <c r="H23">
-        <v>0.04353590857170975</v>
+        <v>0.03961983975932259</v>
       </c>
       <c r="I23">
-        <v>0.0339435954194105</v>
+        <v>0.02668089618139735</v>
       </c>
       <c r="J23">
-        <v>0.9829050328195876</v>
+        <v>0.6236234918888641</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.217210101543067</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2061789783228747</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.4875167566597991</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5596793516966088</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.711441139151816</v>
+        <v>4.303711040347594</v>
       </c>
       <c r="C24">
-        <v>1.355602435432104</v>
+        <v>1.506413907381273</v>
       </c>
       <c r="D24">
-        <v>0.01771142666344616</v>
+        <v>0.02287585300612704</v>
       </c>
       <c r="E24">
-        <v>2.010352150643854</v>
+        <v>1.992975672843571</v>
       </c>
       <c r="F24">
-        <v>1.616510801929138</v>
+        <v>1.392392244584769</v>
       </c>
       <c r="G24">
-        <v>1.589758122649187</v>
+        <v>1.349865215902952</v>
       </c>
       <c r="H24">
-        <v>0.03134155307614739</v>
+        <v>0.02894958291157801</v>
       </c>
       <c r="I24">
-        <v>0.0229903640312541</v>
+        <v>0.01887512788054213</v>
       </c>
       <c r="J24">
-        <v>0.8705506116656636</v>
+        <v>0.7661025026001482</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2267265145739898</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1790147787792762</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5349719630470222</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.579921438460989</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.850012797220757</v>
+        <v>3.543328097408732</v>
       </c>
       <c r="C25">
-        <v>1.115012386430095</v>
+        <v>1.232689627254388</v>
       </c>
       <c r="D25">
-        <v>0.01722209744582237</v>
+        <v>0.02089043781659683</v>
       </c>
       <c r="E25">
-        <v>1.640594122111523</v>
+        <v>1.629940872362511</v>
       </c>
       <c r="F25">
-        <v>1.353843640589332</v>
+        <v>1.183856125236673</v>
       </c>
       <c r="G25">
-        <v>1.324742826227322</v>
+        <v>1.125477633033995</v>
       </c>
       <c r="H25">
-        <v>0.0201246372669257</v>
+        <v>0.01879301252912069</v>
       </c>
       <c r="I25">
-        <v>0.01350180310672577</v>
+        <v>0.0116152835506167</v>
       </c>
       <c r="J25">
-        <v>0.7536802436539745</v>
+        <v>0.6950047813971878</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2265924855645522</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1412884771850145</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.5890586252966603</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6173741382136662</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
